--- a/Code/Results/Cases/Case_4_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_100/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.541248278559749</v>
+        <v>0.9840413895909137</v>
       </c>
       <c r="C2">
-        <v>0.5951867379455393</v>
+        <v>0.1851151416863388</v>
       </c>
       <c r="D2">
-        <v>0.5632246082106178</v>
+        <v>0.6476995259981493</v>
       </c>
       <c r="E2">
-        <v>0.2521005010263977</v>
+        <v>0.2645308497797458</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5149558580774425</v>
+        <v>0.6317406077371004</v>
       </c>
       <c r="H2">
-        <v>0.3531939950976124</v>
+        <v>0.7303384626437293</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1498364263476404</v>
+        <v>0.1379778847859612</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.695538734329304</v>
+        <v>1.041204385562807</v>
       </c>
       <c r="O2">
-        <v>1.781254195979784</v>
+        <v>2.711130602301807</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.208048392319881</v>
+        <v>0.8853465973357402</v>
       </c>
       <c r="C3">
-        <v>0.5200875165460843</v>
+        <v>0.161701311268132</v>
       </c>
       <c r="D3">
-        <v>0.5065394933834853</v>
+        <v>0.6369589940424021</v>
       </c>
       <c r="E3">
-        <v>0.2254633157420258</v>
+        <v>0.259267791642479</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4712372228945725</v>
+        <v>0.6272734791357948</v>
       </c>
       <c r="H3">
-        <v>0.3395653498201767</v>
+        <v>0.7329613008094924</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1330522307733091</v>
+        <v>0.1344947395986935</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7068634303033292</v>
+        <v>1.047568016703494</v>
       </c>
       <c r="O3">
-        <v>1.659592067088539</v>
+        <v>2.706808290012731</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.003957422622932</v>
+        <v>0.8248152129607433</v>
       </c>
       <c r="C4">
-        <v>0.4739789678048112</v>
+        <v>0.1472780473741864</v>
       </c>
       <c r="D4">
-        <v>0.4724410761651825</v>
+        <v>0.6307011226130896</v>
       </c>
       <c r="E4">
-        <v>0.2094322478703177</v>
+        <v>0.2561800331177864</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4456671515091699</v>
+        <v>0.6250341534078387</v>
       </c>
       <c r="H4">
-        <v>0.3319574753815004</v>
+        <v>0.7349699749693883</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.122945329406619</v>
+        <v>0.132435385498674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7147950809788526</v>
+        <v>1.051920591855264</v>
       </c>
       <c r="O4">
-        <v>1.589169543560217</v>
+        <v>2.70604315630456</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.92088064509602</v>
+        <v>0.8001665124358794</v>
       </c>
       <c r="C5">
-        <v>0.4551841981678137</v>
+        <v>0.141388953586727</v>
       </c>
       <c r="D5">
-        <v>0.4587093100230391</v>
+        <v>0.6282357506068479</v>
       </c>
       <c r="E5">
-        <v>0.2029741599434089</v>
+        <v>0.2549579032611433</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.43554404359503</v>
+        <v>0.624247903127582</v>
       </c>
       <c r="H5">
-        <v>0.3290377788542713</v>
+        <v>0.7358886242278686</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1188721278757043</v>
+        <v>0.1316161076831079</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7182648944690513</v>
+        <v>1.053806402634244</v>
       </c>
       <c r="O5">
-        <v>1.561476124514883</v>
+        <v>2.706205535235455</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.907090451377286</v>
+        <v>0.7960747607763778</v>
       </c>
       <c r="C6">
-        <v>0.4520628666786877</v>
+        <v>0.1404103897544644</v>
       </c>
       <c r="D6">
-        <v>0.4564386476675395</v>
+        <v>0.6278314985173381</v>
       </c>
       <c r="E6">
-        <v>0.2019061187655851</v>
+        <v>0.2547571533918642</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4338803847065691</v>
+        <v>0.6241249653557901</v>
       </c>
       <c r="H6">
-        <v>0.3285635735081485</v>
+        <v>0.7360472096955561</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1181983935793269</v>
+        <v>0.1314812701813324</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7188551689162779</v>
+        <v>1.054126314689405</v>
       </c>
       <c r="O6">
-        <v>1.556936295271868</v>
+        <v>2.70626111471401</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.002836689358332</v>
+        <v>0.8244827159861643</v>
       </c>
       <c r="C7">
-        <v>0.4737255232783468</v>
+        <v>0.1471986710916156</v>
       </c>
       <c r="D7">
-        <v>0.4722552402537872</v>
+        <v>0.6306675304730334</v>
       </c>
       <c r="E7">
-        <v>0.2093448581219448</v>
+        <v>0.25616340464601</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4455294554362013</v>
+        <v>0.6250230388290703</v>
       </c>
       <c r="H7">
-        <v>0.3319173817478713</v>
+        <v>0.7349819589594091</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.122890218562226</v>
+        <v>0.1324242557757671</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7148409247823864</v>
+        <v>1.051945570489657</v>
       </c>
       <c r="O7">
-        <v>1.588792085613505</v>
+        <v>2.706043427310448</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.426237855639613</v>
+        <v>0.9499981553958037</v>
       </c>
       <c r="C8">
-        <v>0.5692883055648679</v>
+        <v>0.1770520213069915</v>
       </c>
       <c r="D8">
-        <v>0.5435242369517539</v>
+        <v>0.6439263037140677</v>
       </c>
       <c r="E8">
-        <v>0.2428444488869275</v>
+        <v>0.2626863045160377</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4996029572904206</v>
+        <v>0.6300956434648697</v>
       </c>
       <c r="H8">
-        <v>0.3483305107100989</v>
+        <v>0.7311601352213302</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1440051991694062</v>
+        <v>0.1367604231630608</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6992352577824548</v>
+        <v>1.043306224559032</v>
       </c>
       <c r="O8">
-        <v>1.738372757830092</v>
+        <v>2.709247776745229</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.262071316856122</v>
+        <v>1.196624128355666</v>
       </c>
       <c r="C9">
-        <v>0.7570021002821363</v>
+        <v>0.2352085939646713</v>
       </c>
       <c r="D9">
-        <v>0.6895698827395904</v>
+        <v>0.6725992910409104</v>
       </c>
       <c r="E9">
-        <v>0.3114423561806774</v>
+        <v>0.2766194619764804</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6168666518616988</v>
+        <v>0.6440540354073931</v>
       </c>
       <c r="H9">
-        <v>0.3870577862749514</v>
+        <v>0.7268280014248347</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1872073373297667</v>
+        <v>0.1458943567208877</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6767972954823236</v>
+        <v>1.029892377833406</v>
       </c>
       <c r="O9">
-        <v>2.069095106630499</v>
+        <v>2.730557678482654</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.882018778156123</v>
+        <v>1.378075822618371</v>
       </c>
       <c r="C10">
-        <v>0.8955656968425103</v>
+        <v>0.277688733989379</v>
       </c>
       <c r="D10">
-        <v>0.801728883280191</v>
+        <v>0.6952975235843439</v>
       </c>
       <c r="E10">
-        <v>0.3641129712421076</v>
+        <v>0.2875549906703085</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7115402688009453</v>
+        <v>0.656778749274622</v>
       </c>
       <c r="H10">
-        <v>0.4202595739992177</v>
+        <v>0.7255776386539736</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2203734268071287</v>
+        <v>0.1529924359873718</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6658880412736892</v>
+        <v>1.022181761578864</v>
       </c>
       <c r="O10">
-        <v>2.340022958164809</v>
+        <v>2.755435886447827</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.165927371476471</v>
+        <v>1.46067035254913</v>
       </c>
       <c r="C11">
-        <v>0.9588563085686417</v>
+        <v>0.2969579584543283</v>
       </c>
       <c r="D11">
-        <v>0.8540568655625975</v>
+        <v>0.7059787932811616</v>
       </c>
       <c r="E11">
-        <v>0.3886890138103283</v>
+        <v>0.2926822866923899</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7568647629647813</v>
+        <v>0.6631091314588247</v>
       </c>
       <c r="H11">
-        <v>0.4365790974253088</v>
+        <v>0.7254294896419822</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2358515282037956</v>
+        <v>0.1563063265813724</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6622798777919598</v>
+        <v>1.019138527524134</v>
       </c>
       <c r="O11">
-        <v>2.470587388560659</v>
+        <v>2.768769743580691</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.273762239319922</v>
+        <v>1.491953037554936</v>
       </c>
       <c r="C12">
-        <v>0.9828699730653057</v>
+        <v>0.3042464851607463</v>
       </c>
       <c r="D12">
-        <v>0.8740824308859203</v>
+        <v>0.7100746672278149</v>
       </c>
       <c r="E12">
-        <v>0.3980948905456927</v>
+        <v>0.2946458392967841</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7743892547870814</v>
+        <v>0.6655845876675954</v>
       </c>
       <c r="H12">
-        <v>0.442950430312905</v>
+        <v>0.7254339508667016</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2417761637102416</v>
+        <v>0.1575734603589325</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.661121408550855</v>
+        <v>1.018052820528084</v>
       </c>
       <c r="O12">
-        <v>2.521193952037407</v>
+        <v>2.774109902631892</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.250522731709111</v>
+        <v>1.485215510790852</v>
       </c>
       <c r="C13">
-        <v>0.9776959480959135</v>
+        <v>0.3026771460421287</v>
       </c>
       <c r="D13">
-        <v>0.8697598485192088</v>
+        <v>0.7091902751100463</v>
       </c>
       <c r="E13">
-        <v>0.3960645595214416</v>
+        <v>0.294221976519438</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7705983680260147</v>
+        <v>0.6650479667048188</v>
       </c>
       <c r="H13">
-        <v>0.441569453589139</v>
+        <v>0.7254302953708134</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2404972450712677</v>
+        <v>0.1573000159188211</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6613614417277915</v>
+        <v>1.018283681604444</v>
       </c>
       <c r="O13">
-        <v>2.510241236297958</v>
+        <v>2.772946850459022</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.174792181141981</v>
+        <v>1.463243887273222</v>
       </c>
       <c r="C14">
-        <v>0.9608309276120792</v>
+        <v>0.2975577586113332</v>
       </c>
       <c r="D14">
-        <v>0.8557000360908091</v>
+        <v>0.7063147392511269</v>
       </c>
       <c r="E14">
-        <v>0.3894607818216755</v>
+        <v>0.2928433892789997</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7582990565885126</v>
+        <v>0.6633112178586771</v>
       </c>
       <c r="H14">
-        <v>0.4370993329227275</v>
+        <v>0.7254286424928296</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2363376369136887</v>
+        <v>0.1564103291035224</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.662180325404421</v>
+        <v>1.019047869405568</v>
       </c>
       <c r="O14">
-        <v>2.474726803040085</v>
+        <v>2.769203245962132</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.128448984974398</v>
+        <v>1.449786362948657</v>
       </c>
       <c r="C15">
-        <v>0.9505070305552863</v>
+        <v>0.2944208927149532</v>
       </c>
       <c r="D15">
-        <v>0.8471160479637376</v>
+        <v>0.7045600450827578</v>
       </c>
       <c r="E15">
-        <v>0.3854290695746343</v>
+        <v>0.2920018243217797</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7508135336829298</v>
+        <v>0.6622576138436642</v>
       </c>
       <c r="H15">
-        <v>0.434386709318261</v>
+        <v>0.7254355192147983</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2337982407350125</v>
+        <v>0.1558669642736419</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6627093907517434</v>
+        <v>1.019524640633591</v>
       </c>
       <c r="O15">
-        <v>2.453128351262023</v>
+        <v>2.766948093587871</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.863507158253185</v>
+        <v>1.372678983806509</v>
       </c>
       <c r="C16">
-        <v>0.8914355079966754</v>
+        <v>0.2764283021609515</v>
       </c>
       <c r="D16">
-        <v>0.7983372723597313</v>
+        <v>0.6946066318600685</v>
       </c>
       <c r="E16">
-        <v>0.3625201732410019</v>
+        <v>0.2872229821831453</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7086266784576338</v>
+        <v>0.6563759781081586</v>
       </c>
       <c r="H16">
-        <v>0.4192189128234105</v>
+        <v>0.7255957913040589</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2193703622978802</v>
+        <v>0.1527775764418777</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.666152195773229</v>
+        <v>1.022389981701906</v>
       </c>
       <c r="O16">
-        <v>2.331646915901217</v>
+        <v>2.754605146609634</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.701494544356194</v>
+        <v>1.325388202935528</v>
       </c>
       <c r="C17">
-        <v>0.8552696901309389</v>
+        <v>0.2653760262686546</v>
       </c>
       <c r="D17">
-        <v>0.7687628999873652</v>
+        <v>0.6885916142943529</v>
       </c>
       <c r="E17">
-        <v>0.3486315233279811</v>
+        <v>0.2843304217932783</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6833495477037985</v>
+        <v>0.6529068218315217</v>
       </c>
       <c r="H17">
-        <v>0.4102367909887761</v>
+        <v>0.725801902964875</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2106243431427544</v>
+        <v>0.1509041070007555</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6686201720983291</v>
+        <v>1.024266654960201</v>
       </c>
       <c r="O17">
-        <v>2.259073371999222</v>
+        <v>2.747550316472569</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.608483771479541</v>
+        <v>1.298192705631322</v>
       </c>
       <c r="C18">
-        <v>0.8344916449576658</v>
+        <v>0.2590138755577698</v>
       </c>
       <c r="D18">
-        <v>0.751874019243445</v>
+        <v>0.6851654208978744</v>
       </c>
       <c r="E18">
-        <v>0.3407004072817301</v>
+        <v>0.2826810673043028</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6690208918030294</v>
+        <v>0.6509624344328415</v>
       </c>
       <c r="H18">
-        <v>0.4051838807014718</v>
+        <v>0.7259600418090599</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2056301683442427</v>
+        <v>0.149834530491475</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6701663394137611</v>
+        <v>1.025389780030451</v>
       </c>
       <c r="O18">
-        <v>2.21801254456787</v>
+        <v>2.743682324549809</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.577020372498964</v>
+        <v>1.288985664624875</v>
       </c>
       <c r="C19">
-        <v>0.8274603192961933</v>
+        <v>0.2568588833760543</v>
       </c>
       <c r="D19">
-        <v>0.7461759568924151</v>
+        <v>0.6840111232380082</v>
       </c>
       <c r="E19">
-        <v>0.338024586410107</v>
+        <v>0.2821250921353311</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6642044716017921</v>
+        <v>0.6503128430510969</v>
       </c>
       <c r="H19">
-        <v>0.4034920381383671</v>
+        <v>0.7260203821071229</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2039452514279105</v>
+        <v>0.1494737625189089</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6707112149802725</v>
+        <v>1.025777560895818</v>
       </c>
       <c r="O19">
-        <v>2.204223837204239</v>
+        <v>2.742405252153077</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.718722625124428</v>
+        <v>1.330421889666241</v>
       </c>
       <c r="C20">
-        <v>0.8591170944945645</v>
+        <v>0.2665530980887354</v>
       </c>
       <c r="D20">
-        <v>0.7718984106877258</v>
+        <v>0.6892284578724173</v>
       </c>
       <c r="E20">
-        <v>0.3501039908055787</v>
+        <v>0.2846368525484309</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6860183436378975</v>
+        <v>0.6532708406310661</v>
       </c>
       <c r="H20">
-        <v>0.4111811037411996</v>
+        <v>0.7257758641947447</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2115515640468288</v>
+        <v>0.151102713564498</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6683442520764515</v>
+        <v>1.024062356395795</v>
       </c>
       <c r="O20">
-        <v>2.266727626728482</v>
+        <v>2.74828166903859</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.197026818879124</v>
+        <v>1.469697336235754</v>
       </c>
       <c r="C21">
-        <v>0.9657832370836559</v>
+        <v>0.2990616752953486</v>
       </c>
       <c r="D21">
-        <v>0.8598238552029045</v>
+        <v>0.707157967108003</v>
       </c>
       <c r="E21">
-        <v>0.3913976805319592</v>
+        <v>0.2932477178388382</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.761901556370006</v>
+        <v>0.6638192157787302</v>
       </c>
       <c r="H21">
-        <v>0.4384069793736387</v>
+        <v>0.7254274837577981</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2375576328024493</v>
+        <v>0.1566713194542473</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6619340487873728</v>
+        <v>1.018821599284237</v>
       </c>
       <c r="O21">
-        <v>2.485125703161543</v>
+        <v>2.770294930559629</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.51154767298857</v>
+        <v>1.560755786498532</v>
       </c>
       <c r="C22">
-        <v>1.035774285725552</v>
+        <v>0.3202592987539958</v>
       </c>
       <c r="D22">
-        <v>0.9185245249419154</v>
+        <v>0.7191738194839559</v>
       </c>
       <c r="E22">
-        <v>0.4189709871276008</v>
+        <v>0.2990033992236505</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.813619523499554</v>
+        <v>0.6711696194352186</v>
       </c>
       <c r="H22">
-        <v>0.4573255232606073</v>
+        <v>0.7255528335138877</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2549275553711254</v>
+        <v>0.1603820521234098</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6589630067635994</v>
+        <v>1.015785207617839</v>
       </c>
       <c r="O22">
-        <v>2.634708946609095</v>
+        <v>2.786377985788505</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.343487458801235</v>
+        <v>1.512153550850485</v>
       </c>
       <c r="C23">
-        <v>0.9983897409464646</v>
+        <v>0.3089502986415198</v>
       </c>
       <c r="D23">
-        <v>0.8870738962646385</v>
+        <v>0.7127334913371044</v>
       </c>
       <c r="E23">
-        <v>0.4041971727211546</v>
+        <v>0.2959197721550169</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7858094552295682</v>
+        <v>0.6672046879812683</v>
       </c>
       <c r="H23">
-        <v>0.4471195474477128</v>
+        <v>0.7254536046734898</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.245620170752062</v>
+        <v>0.158395030804158</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.660432635752727</v>
+        <v>1.017370240064551</v>
       </c>
       <c r="O23">
-        <v>2.554207412784507</v>
+        <v>2.777638655245198</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.710933401237014</v>
+        <v>1.32814618282714</v>
       </c>
       <c r="C24">
-        <v>0.8573776395949437</v>
+        <v>0.2660209689674957</v>
       </c>
       <c r="D24">
-        <v>0.7704804934359402</v>
+        <v>0.688940441461682</v>
       </c>
       <c r="E24">
-        <v>0.3494381219516498</v>
+        <v>0.2844982727902163</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6848111498547667</v>
+        <v>0.6531061117715211</v>
       </c>
       <c r="H24">
-        <v>0.4107538353502491</v>
+        <v>0.7257875128405686</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2111322620254441</v>
+        <v>0.1510129001594578</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6684686000011553</v>
+        <v>1.024154582085103</v>
       </c>
       <c r="O24">
-        <v>2.26326508247783</v>
+        <v>2.747950439230436</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.035118261161074</v>
+        <v>1.129857263837664</v>
       </c>
       <c r="C25">
-        <v>0.7061418593604003</v>
+        <v>0.2195182778781088</v>
       </c>
       <c r="D25">
-        <v>0.6492862462418714</v>
+        <v>0.6645560716613375</v>
       </c>
       <c r="E25">
-        <v>0.2925243857415794</v>
+        <v>0.2727276524006541</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5837762700518283</v>
+        <v>0.6398460052765955</v>
       </c>
       <c r="H25">
-        <v>0.375805565166786</v>
+        <v>0.7276609297926768</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1752951642369638</v>
+        <v>0.1433555659683137</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6819341064825366</v>
+        <v>1.033144154222732</v>
       </c>
       <c r="O25">
-        <v>1.975113807550287</v>
+        <v>2.723177782049703</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_100/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9840413895909137</v>
+        <v>2.541248278559863</v>
       </c>
       <c r="C2">
-        <v>0.1851151416863388</v>
+        <v>0.5951867379454825</v>
       </c>
       <c r="D2">
-        <v>0.6476995259981493</v>
+        <v>0.5632246082103904</v>
       </c>
       <c r="E2">
-        <v>0.2645308497797458</v>
+        <v>0.252100501026419</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6317406077371004</v>
+        <v>0.5149558580773856</v>
       </c>
       <c r="H2">
-        <v>0.7303384626437293</v>
+        <v>0.3531939950976124</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1379778847859612</v>
+        <v>0.1498364263476617</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.041204385562807</v>
+        <v>0.6955387343293324</v>
       </c>
       <c r="O2">
-        <v>2.711130602301807</v>
+        <v>1.781254195979756</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8853465973357402</v>
+        <v>2.208048392320109</v>
       </c>
       <c r="C3">
-        <v>0.161701311268132</v>
+        <v>0.5200875165465106</v>
       </c>
       <c r="D3">
-        <v>0.6369589940424021</v>
+        <v>0.5065394933833716</v>
       </c>
       <c r="E3">
-        <v>0.259267791642479</v>
+        <v>0.2254633157420471</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6272734791357948</v>
+        <v>0.4712372228946009</v>
       </c>
       <c r="H3">
-        <v>0.7329613008094924</v>
+        <v>0.3395653498201767</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1344947395986935</v>
+        <v>0.1330522307734157</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.047568016703494</v>
+        <v>0.7068634303033292</v>
       </c>
       <c r="O3">
-        <v>2.706808290012731</v>
+        <v>1.659592067088568</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8248152129607433</v>
+        <v>2.003957422623046</v>
       </c>
       <c r="C4">
-        <v>0.1472780473741864</v>
+        <v>0.4739789678052944</v>
       </c>
       <c r="D4">
-        <v>0.6307011226130896</v>
+        <v>0.4724410761650688</v>
       </c>
       <c r="E4">
-        <v>0.2561800331177864</v>
+        <v>0.2094322478703319</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.6250341534078387</v>
+        <v>0.4456671515091841</v>
       </c>
       <c r="H4">
-        <v>0.7349699749693883</v>
+        <v>0.3319574753814862</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.132435385498674</v>
+        <v>0.1229453294066403</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.051920591855264</v>
+        <v>0.7147950809788455</v>
       </c>
       <c r="O4">
-        <v>2.70604315630456</v>
+        <v>1.589169543560189</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8001665124358794</v>
+        <v>1.920880645095991</v>
       </c>
       <c r="C5">
-        <v>0.141388953586727</v>
+        <v>0.4551841981676716</v>
       </c>
       <c r="D5">
-        <v>0.6282357506068479</v>
+        <v>0.4587093100229254</v>
       </c>
       <c r="E5">
-        <v>0.2549579032611433</v>
+        <v>0.2029741599434232</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.624247903127582</v>
+        <v>0.4355440435950442</v>
       </c>
       <c r="H5">
-        <v>0.7358886242278686</v>
+        <v>0.3290377788542713</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1316161076831079</v>
+        <v>0.1188721278755906</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.053806402634244</v>
+        <v>0.7182648944690513</v>
       </c>
       <c r="O5">
-        <v>2.706205535235455</v>
+        <v>1.561476124514826</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7960747607763778</v>
+        <v>1.907090451377343</v>
       </c>
       <c r="C6">
-        <v>0.1404103897544644</v>
+        <v>0.4520628666786877</v>
       </c>
       <c r="D6">
-        <v>0.6278314985173381</v>
+        <v>0.4564386476675395</v>
       </c>
       <c r="E6">
-        <v>0.2547571533918642</v>
+        <v>0.2019061187655709</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6241249653557901</v>
+        <v>0.4338803847065265</v>
       </c>
       <c r="H6">
-        <v>0.7360472096955561</v>
+        <v>0.3285635735081485</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1314812701813324</v>
+        <v>0.118198393579334</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.054126314689405</v>
+        <v>0.718855168916221</v>
       </c>
       <c r="O6">
-        <v>2.70626111471401</v>
+        <v>1.556936295271896</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8244827159861643</v>
+        <v>2.00283668935856</v>
       </c>
       <c r="C7">
-        <v>0.1471986710916156</v>
+        <v>0.4737255232785174</v>
       </c>
       <c r="D7">
-        <v>0.6306675304730334</v>
+        <v>0.4722552402539009</v>
       </c>
       <c r="E7">
-        <v>0.25616340464601</v>
+        <v>0.2093448581219448</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.6250230388290703</v>
+        <v>0.4455294554362013</v>
       </c>
       <c r="H7">
-        <v>0.7349819589594091</v>
+        <v>0.3319173817478713</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1324242557757671</v>
+        <v>0.122890218562155</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.051945570489657</v>
+        <v>0.7148409247823864</v>
       </c>
       <c r="O7">
-        <v>2.706043427310448</v>
+        <v>1.58879208561342</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9499981553958037</v>
+        <v>2.426237855639613</v>
       </c>
       <c r="C8">
-        <v>0.1770520213069915</v>
+        <v>0.569288305564811</v>
       </c>
       <c r="D8">
-        <v>0.6439263037140677</v>
+        <v>0.5435242369515834</v>
       </c>
       <c r="E8">
-        <v>0.2626863045160377</v>
+        <v>0.2428444488869133</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.6300956434648697</v>
+        <v>0.499602957290449</v>
       </c>
       <c r="H8">
-        <v>0.7311601352213302</v>
+        <v>0.348330510709971</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1367604231630608</v>
+        <v>0.1440051991694986</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.043306224559032</v>
+        <v>0.6992352577824406</v>
       </c>
       <c r="O8">
-        <v>2.709247776745229</v>
+        <v>1.738372757830092</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.196624128355666</v>
+        <v>3.262071316856122</v>
       </c>
       <c r="C9">
-        <v>0.2352085939646713</v>
+        <v>0.7570021002821363</v>
       </c>
       <c r="D9">
-        <v>0.6725992910409104</v>
+        <v>0.689569882739562</v>
       </c>
       <c r="E9">
-        <v>0.2766194619764804</v>
+        <v>0.3114423561807129</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6440540354073931</v>
+        <v>0.6168666518616988</v>
       </c>
       <c r="H9">
-        <v>0.7268280014248347</v>
+        <v>0.3870577862749514</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1458943567208877</v>
+        <v>0.1872073373298164</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.029892377833406</v>
+        <v>0.6767972954822667</v>
       </c>
       <c r="O9">
-        <v>2.730557678482654</v>
+        <v>2.069095106630499</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.378075822618371</v>
+        <v>3.882018778156066</v>
       </c>
       <c r="C10">
-        <v>0.277688733989379</v>
+        <v>0.8955656968423682</v>
       </c>
       <c r="D10">
-        <v>0.6952975235843439</v>
+        <v>0.8017288832803047</v>
       </c>
       <c r="E10">
-        <v>0.2875549906703085</v>
+        <v>0.3641129712421147</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.656778749274622</v>
+        <v>0.7115402688008885</v>
       </c>
       <c r="H10">
-        <v>0.7255776386539736</v>
+        <v>0.4202595739992319</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1529924359873718</v>
+        <v>0.2203734268071855</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.022181761578864</v>
+        <v>0.6658880412736892</v>
       </c>
       <c r="O10">
-        <v>2.755435886447827</v>
+        <v>2.340022958164809</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.46067035254913</v>
+        <v>4.165927371476357</v>
       </c>
       <c r="C11">
-        <v>0.2969579584543283</v>
+        <v>0.9588563085686701</v>
       </c>
       <c r="D11">
-        <v>0.7059787932811616</v>
+        <v>0.8540568655626828</v>
       </c>
       <c r="E11">
-        <v>0.2926822866923899</v>
+        <v>0.3886890138103425</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6631091314588247</v>
+        <v>0.7568647629647103</v>
       </c>
       <c r="H11">
-        <v>0.7254294896419822</v>
+        <v>0.4365790974252093</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1563063265813724</v>
+        <v>0.2358515282037814</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.019138527524134</v>
+        <v>0.6622798777919598</v>
       </c>
       <c r="O11">
-        <v>2.768769743580691</v>
+        <v>2.470587388560659</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.491953037554936</v>
+        <v>4.273762239319979</v>
       </c>
       <c r="C12">
-        <v>0.3042464851607463</v>
+        <v>0.982869973065533</v>
       </c>
       <c r="D12">
-        <v>0.7100746672278149</v>
+        <v>0.8740824308857498</v>
       </c>
       <c r="E12">
-        <v>0.2946458392967841</v>
+        <v>0.3980948905456998</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6655845876675954</v>
+        <v>0.7743892547871241</v>
       </c>
       <c r="H12">
-        <v>0.7254339508667016</v>
+        <v>0.4429504303128908</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1575734603589325</v>
+        <v>0.2417761637103553</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.018052820528084</v>
+        <v>0.661121408550855</v>
       </c>
       <c r="O12">
-        <v>2.774109902631892</v>
+        <v>2.521193952037379</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.485215510790852</v>
+        <v>4.250522731709111</v>
       </c>
       <c r="C13">
-        <v>0.3026771460421287</v>
+        <v>0.9776959480957998</v>
       </c>
       <c r="D13">
-        <v>0.7091902751100463</v>
+        <v>0.8697598485194078</v>
       </c>
       <c r="E13">
-        <v>0.294221976519438</v>
+        <v>0.3960645595214771</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6650479667048188</v>
+        <v>0.7705983680260289</v>
       </c>
       <c r="H13">
-        <v>0.7254302953708134</v>
+        <v>0.4415694535891248</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1573000159188211</v>
+        <v>0.2404972450712677</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.018283681604444</v>
+        <v>0.6613614417277915</v>
       </c>
       <c r="O13">
-        <v>2.772946850459022</v>
+        <v>2.510241236297958</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.463243887273222</v>
+        <v>4.174792181142152</v>
       </c>
       <c r="C14">
-        <v>0.2975577586113332</v>
+        <v>0.9608309276121645</v>
       </c>
       <c r="D14">
-        <v>0.7063147392511269</v>
+        <v>0.8557000360908376</v>
       </c>
       <c r="E14">
-        <v>0.2928433892789997</v>
+        <v>0.3894607818216613</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6633112178586771</v>
+        <v>0.758299056588541</v>
       </c>
       <c r="H14">
-        <v>0.7254286424928296</v>
+        <v>0.4370993329227275</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1564103291035224</v>
+        <v>0.2363376369137029</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.019047869405568</v>
+        <v>0.6621803254044778</v>
       </c>
       <c r="O14">
-        <v>2.769203245962132</v>
+        <v>2.474726803040141</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.449786362948657</v>
+        <v>4.128448984974341</v>
       </c>
       <c r="C15">
-        <v>0.2944208927149532</v>
+        <v>0.9505070305552863</v>
       </c>
       <c r="D15">
-        <v>0.7045600450827578</v>
+        <v>0.8471160479636239</v>
       </c>
       <c r="E15">
-        <v>0.2920018243217797</v>
+        <v>0.3854290695746769</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6622576138436642</v>
+        <v>0.7508135336830009</v>
       </c>
       <c r="H15">
-        <v>0.7254355192147983</v>
+        <v>0.4343867093182467</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1558669642736419</v>
+        <v>0.2337982407349841</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.019524640633591</v>
+        <v>0.6627093907517008</v>
       </c>
       <c r="O15">
-        <v>2.766948093587871</v>
+        <v>2.453128351261938</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.372678983806509</v>
+        <v>3.863507158253128</v>
       </c>
       <c r="C16">
-        <v>0.2764283021609515</v>
+        <v>0.8914355079966469</v>
       </c>
       <c r="D16">
-        <v>0.6946066318600685</v>
+        <v>0.798337272359646</v>
       </c>
       <c r="E16">
-        <v>0.2872229821831453</v>
+        <v>0.3625201732409735</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6563759781081586</v>
+        <v>0.7086266784577049</v>
       </c>
       <c r="H16">
-        <v>0.7255957913040589</v>
+        <v>0.4192189128233963</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1527775764418777</v>
+        <v>0.2193703622978944</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.022389981701906</v>
+        <v>0.6661521957731793</v>
       </c>
       <c r="O16">
-        <v>2.754605146609634</v>
+        <v>2.331646915901217</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.325388202935528</v>
+        <v>3.701494544356365</v>
       </c>
       <c r="C17">
-        <v>0.2653760262686546</v>
+        <v>0.8552696901311378</v>
       </c>
       <c r="D17">
-        <v>0.6885916142943529</v>
+        <v>0.7687628999873652</v>
       </c>
       <c r="E17">
-        <v>0.2843304217932783</v>
+        <v>0.3486315233279527</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6529068218315217</v>
+        <v>0.6833495477038127</v>
       </c>
       <c r="H17">
-        <v>0.725801902964875</v>
+        <v>0.4102367909887761</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1509041070007555</v>
+        <v>0.2106243431426975</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.024266654960201</v>
+        <v>0.6686201720983291</v>
       </c>
       <c r="O17">
-        <v>2.747550316472569</v>
+        <v>2.25907337199925</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.298192705631322</v>
+        <v>3.608483771479598</v>
       </c>
       <c r="C18">
-        <v>0.2590138755577698</v>
+        <v>0.8344916449580921</v>
       </c>
       <c r="D18">
-        <v>0.6851654208978744</v>
+        <v>0.7518740192433597</v>
       </c>
       <c r="E18">
-        <v>0.2826810673043028</v>
+        <v>0.3407004072817372</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6509624344328415</v>
+        <v>0.6690208918029583</v>
       </c>
       <c r="H18">
-        <v>0.7259600418090599</v>
+        <v>0.4051838807015002</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.149834530491475</v>
+        <v>0.205630168344328</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.025389780030451</v>
+        <v>0.6701663394136901</v>
       </c>
       <c r="O18">
-        <v>2.743682324549809</v>
+        <v>2.218012544567927</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.288985664624875</v>
+        <v>3.577020372499078</v>
       </c>
       <c r="C19">
-        <v>0.2568588833760543</v>
+        <v>0.8274603192963923</v>
       </c>
       <c r="D19">
-        <v>0.6840111232380082</v>
+        <v>0.7461759568923867</v>
       </c>
       <c r="E19">
-        <v>0.2821250921353311</v>
+        <v>0.3380245864100928</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6503128430510969</v>
+        <v>0.6642044716018063</v>
       </c>
       <c r="H19">
-        <v>0.7260203821071229</v>
+        <v>0.4034920381383671</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1494737625189089</v>
+        <v>0.2039452514278537</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.025777560895818</v>
+        <v>0.6707112149802796</v>
       </c>
       <c r="O19">
-        <v>2.742405252153077</v>
+        <v>2.204223837204268</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.330421889666241</v>
+        <v>3.718722625124485</v>
       </c>
       <c r="C20">
-        <v>0.2665530980887354</v>
+        <v>0.8591170944946498</v>
       </c>
       <c r="D20">
-        <v>0.6892284578724173</v>
+        <v>0.7718984106877826</v>
       </c>
       <c r="E20">
-        <v>0.2846368525484309</v>
+        <v>0.3501039908055716</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6532708406310661</v>
+        <v>0.6860183436378975</v>
       </c>
       <c r="H20">
-        <v>0.7257758641947447</v>
+        <v>0.4111811037413418</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.151102713564498</v>
+        <v>0.2115515640468146</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.024062356395795</v>
+        <v>0.6683442520764515</v>
       </c>
       <c r="O20">
-        <v>2.74828166903859</v>
+        <v>2.266727626728482</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.469697336235754</v>
+        <v>4.197026818879181</v>
       </c>
       <c r="C21">
-        <v>0.2990616752953486</v>
+        <v>0.9657832370836843</v>
       </c>
       <c r="D21">
-        <v>0.707157967108003</v>
+        <v>0.8598238552029329</v>
       </c>
       <c r="E21">
-        <v>0.2932477178388382</v>
+        <v>0.3913976805319521</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6638192157787302</v>
+        <v>0.7619015563700486</v>
       </c>
       <c r="H21">
-        <v>0.7254274837577981</v>
+        <v>0.4384069793737524</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1566713194542473</v>
+        <v>0.2375576328024351</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.018821599284237</v>
+        <v>0.661934048787387</v>
       </c>
       <c r="O21">
-        <v>2.770294930559629</v>
+        <v>2.485125703161543</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.560755786498532</v>
+        <v>4.511547672988684</v>
       </c>
       <c r="C22">
-        <v>0.3202592987539958</v>
+        <v>1.03577428572541</v>
       </c>
       <c r="D22">
-        <v>0.7191738194839559</v>
+        <v>0.9185245249420859</v>
       </c>
       <c r="E22">
-        <v>0.2990033992236505</v>
+        <v>0.418970987127615</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6711696194352186</v>
+        <v>0.8136195234995398</v>
       </c>
       <c r="H22">
-        <v>0.7255528335138877</v>
+        <v>0.4573255232606073</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1603820521234098</v>
+        <v>0.2549275553712675</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.015785207617839</v>
+        <v>0.6589630067635994</v>
       </c>
       <c r="O22">
-        <v>2.786377985788505</v>
+        <v>2.634708946609067</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.512153550850485</v>
+        <v>4.343487458801178</v>
       </c>
       <c r="C23">
-        <v>0.3089502986415198</v>
+        <v>0.9983897409464362</v>
       </c>
       <c r="D23">
-        <v>0.7127334913371044</v>
+        <v>0.8870738962644964</v>
       </c>
       <c r="E23">
-        <v>0.2959197721550169</v>
+        <v>0.4041971727211831</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6672046879812683</v>
+        <v>0.7858094552295682</v>
       </c>
       <c r="H23">
-        <v>0.7254536046734898</v>
+        <v>0.4471195474477128</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.158395030804158</v>
+        <v>0.2456201707521046</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.017370240064551</v>
+        <v>0.660432635752727</v>
       </c>
       <c r="O23">
-        <v>2.777638655245198</v>
+        <v>2.554207412784422</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.32814618282714</v>
+        <v>3.710933401237128</v>
       </c>
       <c r="C24">
-        <v>0.2660209689674957</v>
+        <v>0.8573776395952279</v>
       </c>
       <c r="D24">
-        <v>0.688940441461682</v>
+        <v>0.7704804934359686</v>
       </c>
       <c r="E24">
-        <v>0.2844982727902163</v>
+        <v>0.349438121951664</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6531061117715211</v>
+        <v>0.6848111498547809</v>
       </c>
       <c r="H24">
-        <v>0.7257875128405686</v>
+        <v>0.4107538353502633</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1510129001594578</v>
+        <v>0.2111322620255009</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.024154582085103</v>
+        <v>0.6684686000011553</v>
       </c>
       <c r="O24">
-        <v>2.747950439230436</v>
+        <v>2.26326508247783</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.129857263837664</v>
+        <v>3.035118261161074</v>
       </c>
       <c r="C25">
-        <v>0.2195182778781088</v>
+        <v>0.7061418593602866</v>
       </c>
       <c r="D25">
-        <v>0.6645560716613375</v>
+        <v>0.6492862462417861</v>
       </c>
       <c r="E25">
-        <v>0.2727276524006541</v>
+        <v>0.2925243857415722</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.6398460052765955</v>
+        <v>0.5837762700518283</v>
       </c>
       <c r="H25">
-        <v>0.7276609297926768</v>
+        <v>0.3758055651666581</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1433555659683137</v>
+        <v>0.1752951642369567</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.033144154222732</v>
+        <v>0.6819341064824727</v>
       </c>
       <c r="O25">
-        <v>2.723177782049703</v>
+        <v>1.975113807550343</v>
       </c>
     </row>
   </sheetData>
